--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,87 +64,93 @@
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>pie</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
@@ -154,40 +160,46 @@
     <t>old</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
@@ -196,22 +208,19 @@
     <t>makes</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>little</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
+    <t>time</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>positive</t>
@@ -572,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -691,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3875968992248062</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3737373737373738</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +800,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8653250773993808</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +826,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +852,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.696969696969697</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -869,13 +878,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.6883116883116883</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -895,13 +904,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.688135593220339</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -921,13 +930,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6712328767123288</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -947,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -973,13 +982,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6619718309859155</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -999,13 +1008,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6468699839486356</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>806</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>806</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>440</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1025,13 +1034,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6428571428571429</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1051,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6176470588235294</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1077,13 +1086,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.609375</v>
+        <v>0.5688622754491018</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1103,13 +1112,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1129,13 +1138,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5416666666666666</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1155,13 +1164,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5384615384615384</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1181,13 +1190,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1207,13 +1216,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.546875</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1233,13 +1242,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5301204819277109</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1259,7 +1268,7 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5131578947368421</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
         <v>39</v>
@@ -1277,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1285,13 +1294,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5128205128205128</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1311,13 +1320,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.51</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1337,13 +1346,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4603174603174603</v>
+        <v>0.51</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1363,13 +1372,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4285714285714285</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1389,13 +1398,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4156626506024096</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L29">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1415,13 +1424,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4044117647058824</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L30">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1433,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>243</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1441,13 +1450,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3813229571984436</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L31">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1459,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>159</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1467,13 +1476,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3603603603603603</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1485,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1493,13 +1502,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3580246913580247</v>
+        <v>0.4124513618677043</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1511,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1519,13 +1528,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3525179856115108</v>
+        <v>0.3848039215686275</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="M34">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1537,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>90</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1545,13 +1554,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3465753424657534</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L35">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="M35">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1563,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>477</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1571,13 +1580,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3007518796992481</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1589,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1597,13 +1606,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.2870813397129187</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L37">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="M37">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1615,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>149</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1623,13 +1632,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2702702702702703</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1641,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1649,13 +1658,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2583423035522067</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L39">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1667,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>689</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1675,13 +1684,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2516556291390729</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1693,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1701,13 +1710,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2357615894039735</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L41">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1719,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>577</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1727,25 +1736,25 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.1971830985915493</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L42">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="M42">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>627</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1753,25 +1762,25 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.1897018970189702</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L43">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M43">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>299</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1779,13 +1788,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.1880877742946709</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1797,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1805,25 +1814,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1776315789473684</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L45">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="M45">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>375</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1831,25 +1840,25 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1575178997613365</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L46">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M46">
         <v>66</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1857,25 +1866,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1555555555555556</v>
+        <v>0.1626373626373626</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>228</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1883,25 +1892,25 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1435643564356436</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>173</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1909,13 +1918,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1338199513381995</v>
+        <v>0.15</v>
       </c>
       <c r="L49">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M49">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1927,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1935,25 +1944,25 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1291512915129151</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L50">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>236</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1961,25 +1970,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1272727272727273</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M51">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1987,13 +1996,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.09235074626865672</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L52">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2005,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>973</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2013,13 +2022,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.08743169398907104</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L53">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2031,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2039,25 +2048,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.07471264367816093</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>644</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2065,25 +2074,25 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.06168549087749783</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L55">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="N55">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1080</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2091,25 +2100,103 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.05740740740740741</v>
+        <v>0.08691588785046729</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="N56">
+        <v>0.98</v>
+      </c>
+      <c r="O56">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57">
+        <v>0.05925925925925926</v>
+      </c>
+      <c r="L57">
+        <v>32</v>
+      </c>
+      <c r="M57">
+        <v>34</v>
+      </c>
+      <c r="N57">
         <v>0.9399999999999999</v>
       </c>
-      <c r="O56">
+      <c r="O57">
         <v>0.06000000000000005</v>
       </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>509</v>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58">
+        <v>0.05873925501432665</v>
+      </c>
+      <c r="L58">
+        <v>41</v>
+      </c>
+      <c r="M58">
+        <v>41</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59">
+        <v>0.05290546400693842</v>
+      </c>
+      <c r="L59">
+        <v>61</v>
+      </c>
+      <c r="M59">
+        <v>65</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
